--- a/Example Excel Export.xlsx
+++ b/Example Excel Export.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stevenbennett/Documents/Area Takeoff Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0BD372F-95E8-2B40-9450-C1AFCE4D2C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60CFD4C-3591-124C-A8DA-06835A0D8BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="1160" windowWidth="27760" windowHeight="16940" activeTab="1" xr2:uid="{11912A03-96A8-9D4F-9D82-A2D0D514B45F}"/>
+    <workbookView xWindow="1000" yWindow="1500" windowWidth="27760" windowHeight="15160" activeTab="1" xr2:uid="{11912A03-96A8-9D4F-9D82-A2D0D514B45F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Floor 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Floor 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Floor Name" sheetId="1" r:id="rId1"/>
+    <sheet name="Floor Name2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -924,7 +924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB9E9A4-E965-1341-ACE9-0653B4800D9B}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>

--- a/Example Excel Export.xlsx
+++ b/Example Excel Export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stevenbennett/Documents/Area Takeoff Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60CFD4C-3591-124C-A8DA-06835A0D8BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5BAF85-FE36-2E48-8C98-F717DCC3BB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1500" windowWidth="27760" windowHeight="15160" activeTab="1" xr2:uid="{11912A03-96A8-9D4F-9D82-A2D0D514B45F}"/>
+    <workbookView xWindow="1000" yWindow="1500" windowWidth="27760" windowHeight="15160" xr2:uid="{11912A03-96A8-9D4F-9D82-A2D0D514B45F}"/>
   </bookViews>
   <sheets>
     <sheet name="Floor Name" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="21">
   <si>
     <t>Room name</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Ceiling Area (ft2)</t>
+  </si>
+  <si>
+    <t>Door count Type 1</t>
+  </si>
+  <si>
+    <t>Door count Type 2</t>
   </si>
 </sst>
 </file>
@@ -116,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -125,6 +131,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -145,12 +162,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -214,26 +251,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F403AB7E-B850-7543-807A-698E839A156C}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -641,111 +690,413 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="14"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="13"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="13"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB9E9A4-E965-1341-ACE9-0653B4800D9B}">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="B13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="12"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" s="14"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -757,526 +1108,99 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
+      <c r="A19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="10"/>
+      <c r="A20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="11"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+      <c r="B26" s="13"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="B27" s="13"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="B28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="12"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="10"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="11"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="11"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="11"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB9E9A4-E965-1341-ACE9-0653B4800D9B}">
-  <dimension ref="A1:I37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="12"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="11"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="12"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="10"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="11"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="11"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="11"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="12"/>
+      <c r="B29" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
